--- a/Задание3 full.xlsx
+++ b/Задание3 full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79372\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA5A46-9BAA-4004-909F-A84E122CB8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2532BC7-D684-4B13-B667-1A037029EADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>V_x</t>
   </si>
@@ -50,6 +50,33 @@
   </si>
   <si>
     <t>Номер 3(планета 2)</t>
+  </si>
+  <si>
+    <t>Расстояние</t>
+  </si>
+  <si>
+    <t>Потенциал</t>
+  </si>
+  <si>
+    <t>Энергия</t>
+  </si>
+  <si>
+    <t>Эйлера</t>
+  </si>
+  <si>
+    <t>Эйлера-Крамера</t>
+  </si>
+  <si>
+    <t>Верле</t>
+  </si>
+  <si>
+    <t>Бимана</t>
+  </si>
+  <si>
+    <t>Начальная энергия</t>
+  </si>
+  <si>
+    <t>Разность</t>
   </si>
 </sst>
 </file>
@@ -427,15 +454,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1100,6 +1129,451 @@
       <c r="AN6">
         <f t="shared" si="1"/>
         <v>0.26755551241232028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-7.1338311854762195E+33</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-7.10626868547622E+33</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-7.0787547374762195E+33</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-7.0603486854762205E+33</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-7.0485186854762203E+33</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-7.1338311854762195E+33</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-7.10626868547622E+33</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-7.0787547374762195E+33</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-7.0603486854762205E+33</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-7.0485186854762203E+33</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-7.1338311854762195E+33</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-7.10626868547622E+33</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-7.0787547374762195E+33</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>-7.0603486854762205E+33</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-7.0485186854762203E+33</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>-7.1338311854762195E+33</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>-7.10626868547622E+33</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>-7.0787547374762195E+33</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>-7.0603486854762205E+33</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>-7.0485186854762203E+33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>15500</v>
+      </c>
+      <c r="E8">
+        <v>16000</v>
+      </c>
+      <c r="F8">
+        <v>16474.082208590102</v>
+      </c>
+      <c r="G8">
+        <v>16800</v>
+      </c>
+      <c r="H8">
+        <v>17000</v>
+      </c>
+      <c r="N8">
+        <v>15500</v>
+      </c>
+      <c r="O8">
+        <v>16000</v>
+      </c>
+      <c r="P8">
+        <v>16474.082208590102</v>
+      </c>
+      <c r="Q8">
+        <v>16800</v>
+      </c>
+      <c r="R8">
+        <v>17000</v>
+      </c>
+      <c r="X8">
+        <v>15500</v>
+      </c>
+      <c r="Y8">
+        <v>16000</v>
+      </c>
+      <c r="Z8">
+        <v>16474.082208590102</v>
+      </c>
+      <c r="AA8">
+        <v>16800</v>
+      </c>
+      <c r="AB8">
+        <v>17000</v>
+      </c>
+      <c r="AH8">
+        <v>15500</v>
+      </c>
+      <c r="AI8">
+        <v>16000</v>
+      </c>
+      <c r="AJ8">
+        <v>16474.082208590102</v>
+      </c>
+      <c r="AK8">
+        <v>16800</v>
+      </c>
+      <c r="AL8">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>299000000000</v>
+      </c>
+      <c r="E9">
+        <v>299000000000</v>
+      </c>
+      <c r="F9">
+        <v>299000000000</v>
+      </c>
+      <c r="G9">
+        <v>299000000000</v>
+      </c>
+      <c r="H9">
+        <v>299000000000</v>
+      </c>
+      <c r="N9">
+        <v>299000000000</v>
+      </c>
+      <c r="O9">
+        <v>299000000000</v>
+      </c>
+      <c r="P9">
+        <v>299000000000</v>
+      </c>
+      <c r="Q9">
+        <v>299000000000</v>
+      </c>
+      <c r="R9">
+        <v>299000000000</v>
+      </c>
+      <c r="X9">
+        <v>299000000000</v>
+      </c>
+      <c r="Y9">
+        <v>299000000000</v>
+      </c>
+      <c r="Z9">
+        <v>299000000000</v>
+      </c>
+      <c r="AA9">
+        <v>299000000000</v>
+      </c>
+      <c r="AB9">
+        <v>299000000000</v>
+      </c>
+      <c r="AH9">
+        <v>299000000000</v>
+      </c>
+      <c r="AI9">
+        <v>299000000000</v>
+      </c>
+      <c r="AJ9">
+        <v>299000000000</v>
+      </c>
+      <c r="AK9">
+        <v>299000000000</v>
+      </c>
+      <c r="AL9">
+        <v>299000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:AN10" si="2">D8*D8/D9</f>
+        <v>8.0351170568561869E-4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>8.5618729096989966E-4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>9.07676871623361E-4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>9.4394648829431436E-4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>9.6655518394648827E-4</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>8.0351170568561869E-4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>8.5618729096989966E-4</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>9.07676871623361E-4</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>9.4394648829431436E-4</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>9.6655518394648827E-4</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>8.0351170568561869E-4</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>8.5618729096989966E-4</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>9.07676871623361E-4</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>9.4394648829431436E-4</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>9.6655518394648827E-4</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>8.0351170568561869E-4</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="2"/>
+        <v>8.5618729096989966E-4</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="2"/>
+        <v>9.07676871623361E-4</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="2"/>
+        <v>9.4394648829431436E-4</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="2"/>
+        <v>9.6655518394648827E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1">
+        <v>-7.1334267735635203E+33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-7.1061679569910799E+33</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-7.0792242163803102E+33</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-7.0602038751635103E+33</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-7.0484131362986404E+33</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-7.1269500046638803E+33</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-7.0966565091819603E+33</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-7.0693205980280099E+33</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-7.0504204913389295E+33</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-7.03820959641974E+33</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-7.1835822843444601E+33</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>-7.1549296200628795E+33</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>-7.1285509052817498E+33</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-7.1089587593986302E+33</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>-7.0970732281849996E+33</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>-7.1152035793229804E+33</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>-7.0908541707421002E+33</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>-7.0634764043825602E+33</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>-7.0438200700252797E+33</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>-7.0324463088538204E+33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <f>ABS(D7-D11)</f>
+        <v>4.0441191269920849E+29</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:AL12" si="3">ABS(E7-E11)</f>
+        <v>1.0072848514003519E+29</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>4.6947890409069934E+29</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>1.4481031271024234E+29</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>1.0554917757995914E+29</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>6.8811808123392195E+30</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>9.6121762942596704E+30</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>9.4341394482095572E+30</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>9.9281941372909994E+30</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>1.0309089056480318E+31</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>4.9751098868240527E+31</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="3"/>
+        <v>4.8660934586659498E+31</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>4.979616780553036E+31</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="3"/>
+        <v>4.8610073922409642E+31</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="3"/>
+        <v>4.8554542708779322E+31</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="3"/>
+        <v>1.8627606153239162E+31</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="3"/>
+        <v>1.5414514734119795E+31</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="3"/>
+        <v>1.5278333093659216E+31</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="3"/>
+        <v>1.6528615450940808E+31</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="3"/>
+        <v>1.6072376622399941E+31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
